--- a/LoadingAPI/Admin/Datafiles/characterStat.xlsx
+++ b/LoadingAPI/Admin/Datafiles/characterStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegfa\Programming\Kristiania\4.Semester\Smidig\Solution\LoadingV2\LoadingAPI\Admin\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435B4DD-DC30-4F5F-879B-1B1E30EBDCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72471AF-502A-49D6-906E-504E1CED4F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Expirience</t>
+  </si>
+  <si>
+    <t>Alone</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +391,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoadingAPI/Admin/Datafiles/characterStat.xlsx
+++ b/LoadingAPI/Admin/Datafiles/characterStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegfa\Programming\Kristiania\4.Semester\Smidig\Solution\LoadingV2\LoadingAPI\Admin\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72471AF-502A-49D6-906E-504E1CED4F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F760B4-3B45-44BA-A35A-BB14D57F0B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Expirience</t>
   </si>
   <si>
-    <t>Alone</t>
+    <t>Should be the only one</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,16 +399,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
